--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H2">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I2">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J2">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>1408.37287719312</v>
+        <v>1180.947943570314</v>
       </c>
       <c r="R2">
-        <v>5633.49150877248</v>
+        <v>4723.791774281258</v>
       </c>
       <c r="S2">
-        <v>0.04595841319603386</v>
+        <v>0.03999669491697853</v>
       </c>
       <c r="T2">
-        <v>0.02694234824433401</v>
+        <v>0.02378384050621071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H3">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I3">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J3">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>88.58865537828001</v>
+        <v>67.44853668251066</v>
       </c>
       <c r="R3">
-        <v>531.5319322696801</v>
+        <v>404.691220095064</v>
       </c>
       <c r="S3">
-        <v>0.00289084950036123</v>
+        <v>0.002284367028178317</v>
       </c>
       <c r="T3">
-        <v>0.002542067987480453</v>
+        <v>0.002037581649006812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H4">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I4">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J4">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>263.5161825339</v>
+        <v>226.8353886620932</v>
       </c>
       <c r="R4">
-        <v>1581.0970952034</v>
+        <v>1361.012331972559</v>
       </c>
       <c r="S4">
-        <v>0.008599132940468997</v>
+        <v>0.007682528163995909</v>
       </c>
       <c r="T4">
-        <v>0.007561646002437482</v>
+        <v>0.006852567127717327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H5">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I5">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J5">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>666.9720427719375</v>
+        <v>322.2604679505488</v>
       </c>
       <c r="R5">
-        <v>2667.88817108775</v>
+        <v>1289.041871802195</v>
       </c>
       <c r="S5">
-        <v>0.02176481614230366</v>
+        <v>0.01091441302776899</v>
       </c>
       <c r="T5">
-        <v>0.0127592581031595</v>
+        <v>0.00649020273325564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H6">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I6">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J6">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>940.7447072081102</v>
+        <v>403.8750026739459</v>
       </c>
       <c r="R6">
-        <v>5644.468243248661</v>
+        <v>2423.250016043675</v>
       </c>
       <c r="S6">
-        <v>0.03069864143650623</v>
+        <v>0.0136785582755722</v>
       </c>
       <c r="T6">
-        <v>0.02699484481815192</v>
+        <v>0.01220083243339501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H7">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I7">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J7">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>255.88574884422</v>
+        <v>142.252520993366</v>
       </c>
       <c r="R7">
-        <v>1535.31449306532</v>
+        <v>853.515125960196</v>
       </c>
       <c r="S7">
-        <v>0.008350134518208723</v>
+        <v>0.004817850536359377</v>
       </c>
       <c r="T7">
-        <v>0.007342689284669265</v>
+        <v>0.004297367156613152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>53.47854</v>
       </c>
       <c r="I8">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J8">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>1195.66207378368</v>
+        <v>1316.82218052486</v>
       </c>
       <c r="R8">
-        <v>7173.972442702079</v>
+        <v>7900.93308314916</v>
       </c>
       <c r="S8">
-        <v>0.03901717543673065</v>
+        <v>0.0445985238393595</v>
       </c>
       <c r="T8">
-        <v>0.03430974619302316</v>
+        <v>0.03978044360951011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>53.47854</v>
       </c>
       <c r="I9">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J9">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
-        <v>75.20884356591999</v>
+        <v>75.20884356592001</v>
       </c>
       <c r="R9">
-        <v>676.8795920932799</v>
+        <v>676.8795920932801</v>
       </c>
       <c r="S9">
-        <v>0.002454235781284831</v>
+        <v>0.002547195401408277</v>
       </c>
       <c r="T9">
-        <v>0.003237197688371705</v>
+        <v>0.003408024110610809</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>53.47854</v>
       </c>
       <c r="I10">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J10">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>223.7165386995999</v>
+        <v>252.93398641702</v>
       </c>
       <c r="R10">
-        <v>2013.4488482964</v>
+        <v>2276.40587775318</v>
       </c>
       <c r="S10">
-        <v>0.007300379956786731</v>
+        <v>0.008566443206862994</v>
       </c>
       <c r="T10">
-        <v>0.009629381700226454</v>
+        <v>0.01146148621932432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>53.47854</v>
       </c>
       <c r="I11">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J11">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>566.23724351025</v>
+        <v>359.3382201256501</v>
       </c>
       <c r="R11">
-        <v>3397.4234610615</v>
+        <v>2156.0293207539</v>
       </c>
       <c r="S11">
-        <v>0.01847761031587866</v>
+        <v>0.01217017332611999</v>
       </c>
       <c r="T11">
-        <v>0.01624828330332117</v>
+        <v>0.01085540174965202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>53.47854</v>
       </c>
       <c r="I12">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J12">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>798.6611967160401</v>
+        <v>450.3429338915001</v>
       </c>
       <c r="R12">
-        <v>7187.95077044436</v>
+        <v>4053.086405023501</v>
       </c>
       <c r="S12">
-        <v>0.02606213303075527</v>
+        <v>0.01525234794043477</v>
       </c>
       <c r="T12">
-        <v>0.03437659797993355</v>
+        <v>0.02040690301799706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>53.47854</v>
       </c>
       <c r="I13">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J13">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>217.23855242408</v>
+        <v>158.61941747688</v>
       </c>
       <c r="R13">
-        <v>1955.14697181672</v>
+        <v>1427.57475729192</v>
       </c>
       <c r="S13">
-        <v>0.007088988517239887</v>
+        <v>0.005372169436657206</v>
       </c>
       <c r="T13">
-        <v>0.009350551163787789</v>
+        <v>0.00718770258312023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H14">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I14">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J14">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>3119.657482216448</v>
+        <v>4053.021325330204</v>
       </c>
       <c r="R14">
-        <v>18717.94489329869</v>
+        <v>24318.12795198122</v>
       </c>
       <c r="S14">
-        <v>0.1018015256609789</v>
+        <v>0.1372689273255745</v>
       </c>
       <c r="T14">
-        <v>0.0895191532548157</v>
+        <v>0.1224394520877348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H15">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I15">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J15">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>196.2308888972231</v>
+        <v>231.4838338344213</v>
       </c>
       <c r="R15">
-        <v>1766.078000075008</v>
+        <v>2083.354504509792</v>
       </c>
       <c r="S15">
-        <v>0.006403460631631402</v>
+        <v>0.007839963082620534</v>
       </c>
       <c r="T15">
-        <v>0.008446322929675603</v>
+        <v>0.01048949098961835</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H16">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I16">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J16">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>583.7092178070044</v>
+        <v>778.5005872549615</v>
       </c>
       <c r="R16">
-        <v>5253.382960263039</v>
+        <v>7006.505285294653</v>
       </c>
       <c r="S16">
-        <v>0.0190477606127809</v>
+        <v>0.02636648859135032</v>
       </c>
       <c r="T16">
-        <v>0.02512446729632115</v>
+        <v>0.03527708505668109</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H17">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I17">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J17">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>1477.395906551067</v>
+        <v>1106.00010442941</v>
       </c>
       <c r="R17">
-        <v>8864.375439306401</v>
+        <v>6636.000626576461</v>
       </c>
       <c r="S17">
-        <v>0.04821079177747647</v>
+        <v>0.03745833929078318</v>
       </c>
       <c r="T17">
-        <v>0.04239415106642345</v>
+        <v>0.03341162947971458</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H18">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I18">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J18">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>2083.824044202233</v>
+        <v>1386.101739299767</v>
       </c>
       <c r="R18">
-        <v>18754.4163978201</v>
+        <v>12474.9156536979</v>
       </c>
       <c r="S18">
-        <v>0.06799992246523817</v>
+        <v>0.04694490446637131</v>
       </c>
       <c r="T18">
-        <v>0.08969357935881896</v>
+        <v>0.06281000908028518</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H19">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I19">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J19">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>566.8072027667769</v>
+        <v>488.211613650832</v>
       </c>
       <c r="R19">
-        <v>5101.264824900992</v>
+        <v>4393.904522857488</v>
       </c>
       <c r="S19">
-        <v>0.01849620938395257</v>
+        <v>0.01653489560859333</v>
       </c>
       <c r="T19">
-        <v>0.02439695758572321</v>
+        <v>0.02212288969639459</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H20">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I20">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J20">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>842.6383287718079</v>
+        <v>1021.109572585826</v>
       </c>
       <c r="R20">
-        <v>3370.553315087232</v>
+        <v>4084.438290343304</v>
       </c>
       <c r="S20">
-        <v>0.0274972069653113</v>
+        <v>0.03458324160169887</v>
       </c>
       <c r="T20">
-        <v>0.01611977599500492</v>
+        <v>0.02056475676677469</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H21">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I21">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J21">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>53.00314833161866</v>
+        <v>58.31954476773867</v>
       </c>
       <c r="R21">
-        <v>318.018889989712</v>
+        <v>349.9172686064321</v>
       </c>
       <c r="S21">
-        <v>0.001729613393698706</v>
+        <v>0.001975183624707698</v>
       </c>
       <c r="T21">
-        <v>0.001520935226233499</v>
+        <v>0.001761800033654225</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H22">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I22">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J22">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>157.6633853509266</v>
+        <v>196.1337822087487</v>
       </c>
       <c r="R22">
-        <v>945.9803121055598</v>
+        <v>1176.802693252492</v>
       </c>
       <c r="S22">
-        <v>0.005144915190559873</v>
+        <v>0.006642717058467323</v>
       </c>
       <c r="T22">
-        <v>0.004524180246183648</v>
+        <v>0.005925089187034518</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H23">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I23">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J23">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>399.0535578752125</v>
+        <v>278.643314027415</v>
       </c>
       <c r="R23">
-        <v>1596.21423150085</v>
+        <v>1114.57325610966</v>
       </c>
       <c r="S23">
-        <v>0.01302202605373066</v>
+        <v>0.009437174333118092</v>
       </c>
       <c r="T23">
-        <v>0.007633944176660116</v>
+        <v>0.005611769913341178</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H24">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I24">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J24">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>562.8534606990074</v>
+        <v>349.2115241859834</v>
       </c>
       <c r="R24">
-        <v>3377.120764194044</v>
+        <v>2095.2691451159</v>
       </c>
       <c r="S24">
-        <v>0.01836718977944043</v>
+        <v>0.01182719938707292</v>
       </c>
       <c r="T24">
-        <v>0.01615118502449172</v>
+        <v>0.01054948006733497</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H25">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I25">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J25">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>153.0980489998813</v>
+        <v>122.998995596408</v>
       </c>
       <c r="R25">
-        <v>918.5882939992879</v>
+        <v>737.9939735784479</v>
       </c>
       <c r="S25">
-        <v>0.004995937872267309</v>
+        <v>0.004165766432592465</v>
       </c>
       <c r="T25">
-        <v>0.004393177068174937</v>
+        <v>0.003715729185545046</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H26">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I26">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J26">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N26">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O26">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P26">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q26">
-        <v>955.9222201760959</v>
+        <v>4539.370643888265</v>
       </c>
       <c r="R26">
-        <v>5735.533321056575</v>
+        <v>27236.22386332959</v>
       </c>
       <c r="S26">
-        <v>0.03119391823682422</v>
+        <v>0.1537407501720901</v>
       </c>
       <c r="T26">
-        <v>0.02743036638330873</v>
+        <v>0.137131786350901</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H27">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I27">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J27">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P27">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q27">
-        <v>60.12886608580177</v>
+        <v>259.26113767908</v>
       </c>
       <c r="R27">
-        <v>541.1597947722161</v>
+        <v>2333.35023911172</v>
       </c>
       <c r="S27">
-        <v>0.001962141785979123</v>
+        <v>0.008780733040805297</v>
       </c>
       <c r="T27">
-        <v>0.002588113539157944</v>
+        <v>0.01174819564111835</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H28">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I28">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J28">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N28">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O28">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P28">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q28">
-        <v>178.8595750027311</v>
+        <v>871.9181145061051</v>
       </c>
       <c r="R28">
-        <v>1609.73617502458</v>
+        <v>7847.263030554946</v>
       </c>
       <c r="S28">
-        <v>0.00583659511281213</v>
+        <v>0.02953038108780231</v>
       </c>
       <c r="T28">
-        <v>0.007698613291859675</v>
+        <v>0.03951022001967904</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H29">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I29">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J29">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N29">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O29">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P29">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q29">
-        <v>452.7021261532792</v>
+        <v>1238.716503860288</v>
       </c>
       <c r="R29">
-        <v>2716.212756919675</v>
+        <v>7432.299023161726</v>
       </c>
       <c r="S29">
-        <v>0.01477270096960447</v>
+        <v>0.04195321763611358</v>
       </c>
       <c r="T29">
-        <v>0.01299037193695502</v>
+        <v>0.03742091586757974</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H30">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I30">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J30">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N30">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O30">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P30">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q30">
-        <v>638.5232090847603</v>
+        <v>1552.429419874125</v>
       </c>
       <c r="R30">
-        <v>5746.708881762843</v>
+        <v>13971.86477886713</v>
       </c>
       <c r="S30">
-        <v>0.02083646593426337</v>
+        <v>0.05257813964189383</v>
       </c>
       <c r="T30">
-        <v>0.02748381384975207</v>
+        <v>0.07034700498107371</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H31">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I31">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J31">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N31">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O31">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P31">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q31">
-        <v>173.6804770296982</v>
+        <v>546.79541239062</v>
       </c>
       <c r="R31">
-        <v>1563.124293267284</v>
+        <v>4921.158711515579</v>
       </c>
       <c r="S31">
-        <v>0.005667589355542959</v>
+        <v>0.01851902906513587</v>
       </c>
       <c r="T31">
-        <v>0.007475690518536381</v>
+        <v>0.02477756418851562</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H32">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I32">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J32">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N32">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O32">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P32">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q32">
-        <v>4386.669776389599</v>
+        <v>2766.922887923301</v>
       </c>
       <c r="R32">
-        <v>26320.0186583376</v>
+        <v>16601.5373275398</v>
       </c>
       <c r="S32">
-        <v>0.1431470212204478</v>
+        <v>0.09371096432286068</v>
       </c>
       <c r="T32">
-        <v>0.125876307328422</v>
+        <v>0.0835871551548624</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H33">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I33">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J33">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P33">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q33">
-        <v>275.9277627196222</v>
+        <v>158.0297429026018</v>
       </c>
       <c r="R33">
-        <v>2483.3498644766</v>
+        <v>1422.267686123416</v>
       </c>
       <c r="S33">
-        <v>0.009004151057352904</v>
+        <v>0.005352198163430377</v>
       </c>
       <c r="T33">
-        <v>0.01187669791585913</v>
+        <v>0.007160981986561756</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H34">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I34">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J34">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N34">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O34">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P34">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q34">
-        <v>820.7758699633887</v>
+        <v>531.4679889975636</v>
       </c>
       <c r="R34">
-        <v>7386.982829670499</v>
+        <v>4783.211900978072</v>
       </c>
       <c r="S34">
-        <v>0.02678378516369219</v>
+        <v>0.0179999153475049</v>
       </c>
       <c r="T34">
-        <v>0.0353284749896188</v>
+        <v>0.02408301517007084</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H35">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I35">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J35">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N35">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O35">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P35">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q35">
-        <v>2077.422924783646</v>
+        <v>755.0458676014927</v>
       </c>
       <c r="R35">
-        <v>12464.53754870187</v>
+        <v>4530.275205608956</v>
       </c>
       <c r="S35">
-        <v>0.06779103936622329</v>
+        <v>0.02557211719551479</v>
       </c>
       <c r="T35">
-        <v>0.05961203825704856</v>
+        <v>0.0228095030619419</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H36">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I36">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J36">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N36">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O36">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P36">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q36">
-        <v>2930.144737402828</v>
+        <v>946.2660863612307</v>
       </c>
       <c r="R36">
-        <v>26371.30263662545</v>
+        <v>8516.394777251076</v>
       </c>
       <c r="S36">
-        <v>0.09561729336490032</v>
+        <v>0.03204842023099719</v>
       </c>
       <c r="T36">
-        <v>0.1261215745486236</v>
+        <v>0.04287923446856093</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H37">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I37">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J37">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N37">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O37">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P37">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q37">
-        <v>797.0092997678776</v>
+        <v>333.2930620221694</v>
       </c>
       <c r="R37">
-        <v>7173.083697910899</v>
+        <v>2999.637558199524</v>
       </c>
       <c r="S37">
-        <v>0.02600822787273191</v>
+        <v>0.01128806819320448</v>
       </c>
       <c r="T37">
-        <v>0.03430549574343483</v>
+        <v>0.01510288866860816</v>
       </c>
     </row>
   </sheetData>
